--- a/config_5.25/permission_server_config.xlsx
+++ b/config_5.25/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -85,6 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,6 +96,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,6 +112,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -120,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,6 +139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,6 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,6 +210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -216,6 +226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,6 +237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -247,6 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,6 +270,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -272,6 +286,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -282,6 +297,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,6 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -307,6 +324,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -328,6 +346,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,6 +357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,6 +373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -363,6 +384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -378,6 +400,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -388,6 +411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,6 +433,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,6 +444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,6 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -444,6 +471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -459,6 +487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -469,6 +498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,6 +520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -500,6 +531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -515,6 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,6 +558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -540,6 +574,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -550,6 +585,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,6 +957,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -931,6 +968,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +979,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,6 +995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -966,6 +1006,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -981,6 +1022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -991,6 +1033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1006,6 +1049,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1021,6 +1065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1036,6 +1081,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1051,6 +1097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1066,6 +1113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1081,6 +1129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,6 +1145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1117,6 +1167,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1127,6 +1178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1305,6 +1359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,6 +1370,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,6 +1386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1340,6 +1397,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1355,6 +1413,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,6 +1424,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1572,6 +1632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1582,6 +1643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1846,6 +1908,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1856,6 +1919,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2042,6 +2106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2052,6 +2117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2062,6 +2128,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2077,6 +2144,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2087,6 +2155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2105,6 +2174,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,6 +2185,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2148,6 +2219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2158,6 +2230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2168,6 +2241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2192,6 +2266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2202,6 +2277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2214,6 +2290,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2224,6 +2301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2260,6 +2338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2270,6 +2349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2321,6 +2401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2331,6 +2412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2341,6 +2423,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2710,6 +2793,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2720,6 +2804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2730,6 +2815,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2778,6 +2864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2788,6 +2875,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2800,6 +2888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2810,6 +2899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2900,6 +2990,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,6 +3001,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2955,6 +3047,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2965,6 +3058,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3151,6 +3245,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3161,6 +3256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3188,6 +3284,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3198,6 +3295,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3234,6 +3332,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3244,6 +3343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3389,6 +3489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3399,6 +3500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3409,6 +3511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3439,6 +3542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3449,6 +3553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3461,6 +3566,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3471,6 +3577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3846,6 +3953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3856,6 +3964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4297,6 +4406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4307,6 +4417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4379,6 +4490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4389,6 +4501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4399,6 +4512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4409,6 +4523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4421,6 +4536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4431,6 +4547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4441,6 +4558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4510,6 +4628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4520,6 +4639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4530,6 +4650,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4540,6 +4661,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4550,6 +4672,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4568,6 +4691,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4578,6 +4702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4593,6 +4718,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4603,6 +4729,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4613,6 +4740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4709,6 +4837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4719,6 +4848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4729,6 +4859,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4739,6 +4870,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4749,6 +4881,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4759,6 +4892,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4846,6 +4980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4856,6 +4991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4866,6 +5002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5040,6 +5177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5050,6 +5188,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5065,6 +5204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5075,6 +5215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5085,6 +5226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5100,6 +5242,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5110,6 +5253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5122,6 +5266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5132,6 +5277,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5147,6 +5293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5157,6 +5304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5196,6 +5344,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5206,6 +5355,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5302,6 +5452,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5312,6 +5463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5322,6 +5474,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5334,6 +5487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5344,6 +5498,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5503,6 +5658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5513,6 +5669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5525,6 +5682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5535,6 +5693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5547,6 +5706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5557,6 +5717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5581,6 +5742,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5591,6 +5753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5618,6 +5781,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5628,6 +5792,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5643,6 +5808,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5653,6 +5819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5734,6 +5901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5744,6 +5912,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5858,6 +6027,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5868,6 +6038,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5892,6 +6063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5902,6 +6074,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5917,6 +6090,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5927,6 +6101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5942,6 +6117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5952,6 +6128,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5967,6 +6144,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5977,6 +6155,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6010,6 +6189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6020,6 +6200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6056,6 +6237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6066,6 +6248,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6081,6 +6264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6091,6 +6275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6115,6 +6300,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6125,6 +6311,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6140,6 +6327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6150,6 +6338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6160,6 +6349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6170,6 +6360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6180,6 +6371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6190,6 +6382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6577,6 +6770,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6587,6 +6781,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6617,6 +6812,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6627,6 +6823,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6645,6 +6842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6655,6 +6853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6665,6 +6864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6677,6 +6877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6687,6 +6888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6708,6 +6910,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6718,6 +6921,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6728,6 +6932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6738,6 +6943,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6792,6 +6998,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6802,6 +7009,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6812,6 +7020,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6827,6 +7036,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6837,6 +7047,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6847,6 +7058,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6857,6 +7069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6867,6 +7080,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6879,6 +7093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6889,6 +7104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6899,6 +7115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6998,6 +7215,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7008,6 +7226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7018,6 +7237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7030,6 +7250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7040,6 +7261,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7052,6 +7274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7062,6 +7285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7074,6 +7298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7084,6 +7309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7096,6 +7322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7106,6 +7333,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7121,6 +7349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7131,6 +7360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7143,6 +7373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7153,6 +7384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7237,6 +7469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7247,6 +7480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7259,6 +7493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7271,6 +7506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7283,6 +7519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7529,6 +7766,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7539,6 +7777,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7557,6 +7796,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7567,6 +7807,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7579,6 +7820,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7589,6 +7831,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7613,6 +7856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7623,6 +7867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7635,6 +7880,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7645,6 +7891,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7657,6 +7904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7667,6 +7915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7679,6 +7928,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7689,6 +7939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7701,6 +7952,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7711,6 +7963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7759,6 +8012,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7769,6 +8023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7779,6 +8034,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7860,6 +8116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7870,6 +8127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7882,6 +8140,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7892,6 +8151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7910,6 +8170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7920,6 +8181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7930,6 +8192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8095,6 +8358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8105,6 +8369,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8115,6 +8380,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8154,6 +8420,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8164,6 +8431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8174,6 +8442,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8186,6 +8455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8196,6 +8466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8206,6 +8477,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8218,6 +8490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8228,6 +8501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8238,6 +8512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8250,6 +8525,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8260,6 +8536,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8270,6 +8547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8354,6 +8632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8364,6 +8643,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8376,6 +8656,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8386,6 +8667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8542,6 +8824,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8552,6 +8835,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8621,6 +8905,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8631,6 +8916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8671,9 +8957,6 @@
     <t>奥秘CPS</t>
   </si>
   <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
-  </si>
-  <si>
     <t>奥秘ALL</t>
   </si>
   <si>
@@ -8724,6 +9007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8734,6 +9018,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -8814,6 +9099,9 @@
   <si>
     <t>不是IOS用户</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam,"xiaomi_byam","yyb_byam","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
   </si>
 </sst>
 </file>
@@ -8832,6 +9120,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8843,6 +9132,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -8856,6 +9146,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -8863,6 +9154,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8875,6 +9167,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -8888,16 +9181,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -28232,7 +28528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -53514,7 +53810,7 @@
         <v>1642</v>
       </c>
       <c r="D1059" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E1059" s="21">
         <v>2</v>
@@ -53523,7 +53819,7 @@
         <v>1</v>
       </c>
       <c r="G1059" s="3" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="H1059" s="48" t="s">
         <v>1944</v>
@@ -53549,7 +53845,7 @@
         <v>1</v>
       </c>
       <c r="G1060" s="94" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H1060" s="48"/>
     </row>
@@ -53564,7 +53860,7 @@
         <v>1642</v>
       </c>
       <c r="D1061" s="21" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E1061" s="21">
         <v>2</v>
@@ -53573,7 +53869,7 @@
         <v>1</v>
       </c>
       <c r="G1061" s="3" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1062" spans="1:9">
@@ -53596,7 +53892,7 @@
         <v>2</v>
       </c>
       <c r="G1062" s="94" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
@@ -53610,8 +53906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53935,16 +54231,16 @@
         <v>1698</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>1969</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -53958,7 +54254,7 @@
         <v>1698</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -53967,7 +54263,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -53975,22 +54271,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>1698</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>1972</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -53998,22 +54294,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>1698</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>1974</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>1975</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -54021,22 +54317,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1698</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>1977</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -54050,16 +54346,16 @@
         <v>1698</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>1979</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1980</v>
       </c>
     </row>
   </sheetData>
@@ -54086,13 +54382,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1982</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1983</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -54108,10 +54404,10 @@
         <v>1623</v>
       </c>
       <c r="B2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1984</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.9" customHeight="1">
@@ -54119,7 +54415,7 @@
         <v>1640</v>
       </c>
       <c r="B3" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.15" customHeight="1">
@@ -54127,7 +54423,7 @@
         <v>1638</v>
       </c>
       <c r="B4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.6" customHeight="1">
@@ -54135,15 +54431,15 @@
         <v>1659</v>
       </c>
       <c r="B5" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.15" customHeight="1">
       <c r="A6" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B6" t="s">
         <v>1989</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="104.25" customHeight="1">
@@ -54151,7 +54447,7 @@
         <v>1610</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -54159,15 +54455,15 @@
         <v>1698</v>
       </c>
       <c r="B8" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>1993</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5">
@@ -54175,10 +54471,10 @@
         <v>1647</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>1995</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -54186,7 +54482,7 @@
         <v>1737</v>
       </c>
       <c r="B11" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -54194,10 +54490,10 @@
         <v>1742</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>1998</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -54205,7 +54501,7 @@
         <v>1740</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.25/permission_server_config.xlsx
+++ b/config_5.25/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5374" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="2007">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8809,6 +8809,10 @@
   </si>
   <si>
     <t>是欢乐捕鱼CPL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是IOS用户</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -28226,13 +28230,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1060"/>
+  <dimension ref="A1:I1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1063" sqref="E1063"/>
+      <selection pane="bottomRight" activeCell="D1065" sqref="D1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53532,20 +53536,67 @@
       <c r="B1060" s="21">
         <v>441</v>
       </c>
-      <c r="C1060" s="3" t="s">
+      <c r="C1060" s="94" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1060" s="10" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1060" s="94">
+        <v>5</v>
+      </c>
+      <c r="F1060" s="94">
+        <v>1</v>
+      </c>
+      <c r="G1060" s="94" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H1060" s="48"/>
+    </row>
+    <row r="1061" spans="1:9">
+      <c r="A1061" s="21">
+        <v>1060</v>
+      </c>
+      <c r="B1061" s="21">
+        <v>441</v>
+      </c>
+      <c r="C1061" s="3" t="s">
         <v>1642</v>
       </c>
-      <c r="D1060" s="21" t="s">
+      <c r="D1061" s="21" t="s">
         <v>2003</v>
       </c>
-      <c r="E1060" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1060" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1060" s="3" t="s">
+      <c r="E1061" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1061" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1061" s="3" t="s">
         <v>2005</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9">
+      <c r="A1062" s="21">
+        <v>1061</v>
+      </c>
+      <c r="B1062" s="21">
+        <v>441</v>
+      </c>
+      <c r="C1062" s="94" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1062" s="10" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1062" s="94">
+        <v>5</v>
+      </c>
+      <c r="F1062" s="94">
+        <v>2</v>
+      </c>
+      <c r="G1062" s="94" t="s">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
